--- a/HojaVidaComputo/Ubicación - Modelo de dominio enriquecido.xlsx
+++ b/HojaVidaComputo/Ubicación - Modelo de dominio enriquecido.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\HojaVidaComputo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/HojaVidaComputo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693A3DB-600A-4D89-9138-23D8B4220805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5693A3DB-600A-4D89-9138-23D8B4220805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D3BB2EF-F278-4325-88BC-9494EEE0A8AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="TipoSede" sheetId="70" r:id="rId6"/>
     <sheet name="Sede" sheetId="69" r:id="rId7"/>
     <sheet name="Institución" sheetId="71" r:id="rId8"/>
-    <sheet name="TipoInstitución" sheetId="72" r:id="rId9"/>
-    <sheet name="Naturaleza" sheetId="73" r:id="rId10"/>
+    <sheet name="Naturaleza" sheetId="73" r:id="rId9"/>
+    <sheet name="TipoInstitución" sheetId="72" r:id="rId10"/>
     <sheet name="TipoIdentificación" sheetId="74" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -375,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,12 +422,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -894,6 +888,81 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -930,110 +999,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1067,9 +1061,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1107,7 +1101,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1213,7 +1207,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1355,7 +1349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1392,11 +1386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31553A4-246A-4520-898F-309D5889F13D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B89BC-CEFB-4BD5-8A01-8985FA4EA88C}">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,83 +1404,83 @@
     <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
-        <f>+'Listado Objetos de Dominio'!A11</f>
-        <v>Naturaleza</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="B2" s="61" t="str">
+        <f>'Listado Objetos de Dominio'!A10</f>
+        <v>TipoInstitucion</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
-        <f>+'Listado Objetos de Dominio'!B11</f>
-        <v>Objeto de dominio que representa  cada uno de los tipos de naturalezas tributarias que tiene cada institucion</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="B3" s="62" t="str">
+        <f>'Listado Objetos de Dominio'!B10</f>
+        <v xml:space="preserve">Objeto de dominio que contiene representa cada uno de los tipos de instituciones que se tienen en un pais </v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1587,7 +1581,7 @@
         <v>42</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="21"/>
@@ -1605,16 +1599,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
         <v>43</v>
       </c>
@@ -1631,7 +1623,7 @@
         <v>43</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="32"/>
       <c r="R6" s="21"/>
@@ -1640,11 +1632,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1657,58 +1649,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="85" t="str">
+    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="57" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61" t="s">
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61" t="s">
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="62"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -1721,12 +1713,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
+      <c r="K13" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -1741,88 +1733,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -1830,43 +1822,43 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E910AE9F-1606-43D3-94BF-5A9B9581EAE2}"/>
-    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{EEB9CCC5-04C5-4DB2-BB14-B1071A74DF30}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{BBBCC047-7523-420B-95FE-718ADEA13470}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{90C99117-51B1-4D20-A871-6AB103E6BDCF}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{16DA69D5-C28E-4D30-8D58-EE831040399C}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{7C0818FE-0F8D-4C4A-BADE-42A1E1080E59}"/>
-    <hyperlink ref="A14:B14" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{F6370D27-6966-44EC-B0C3-4D75FF4213FA}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{2CC57F17-FA78-4DC6-BA43-3648A14E95DD}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{656DB2DB-2E9E-425B-A416-2E5986998DE5}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{F6C501F2-FBA7-4C55-8776-F61192041F48}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{0B94DA54-E292-4E52-8500-2DB30A344A6D}"/>
-    <hyperlink ref="C10" location="Naturaleza!A6" display="Naturaleza!A6" xr:uid="{E2DC6613-995C-48BF-BC11-148B175DB943}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F5598C1E-A4F9-4E6C-AE34-8D6C68127C7A}"/>
+    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{351D3BAF-BF2B-40B8-8C47-6F8AA038E925}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{FA8DEBF3-3473-4419-A5D4-4D827B877F05}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{59E750FB-95F1-49DC-B971-122F6737404A}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{7D875679-F14C-417B-9FBB-C89A5B683465}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{9E695DBA-DD4C-4B4A-B8E2-78E802642D40}"/>
+    <hyperlink ref="A14:B14" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{9FBAE767-747D-4560-AAC7-3710CF9DD879}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{13AA64BD-200E-4A56-B599-57A81F758859}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{FB93FB9E-0B3B-446A-9C5E-47F7BFE0761F}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{579662AA-5B2E-495A-A07A-CF6650220185}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{FAE4E240-11F4-4E0E-ACFB-7B30C6422901}"/>
+    <hyperlink ref="C10" location="TipoInstitución!A6" display="TipoInstitución!A6" xr:uid="{BFEDF9A9-4BEC-4480-92DF-A4EB22B3BDE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1905,70 +1897,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="61" t="str">
         <f>'Listado Objetos de Dominio'!A12</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="62" t="str">
         <f>+'Listado Objetos de Dominio'!B12</f>
         <v xml:space="preserve">Objeto de domino que representa cada uno de los tipos de identificacion tributaria de los negocios en un pais </v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2120,11 +2112,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2138,57 +2130,57 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="85" t="str">
+      <c r="C10" s="57" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61" t="s">
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61" t="s">
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="62"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -2201,12 +2193,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
+      <c r="K13" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -2221,88 +2213,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -2310,29 +2302,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{2C82CAE1-70DF-40A9-B1A2-1960AF16AFE9}"/>
@@ -2357,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -2372,170 +2364,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="52" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2564,7 +2556,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B6" sqref="B6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,70 +2582,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="61" t="str">
         <f>'Listado Objetos de Dominio'!A8</f>
         <v>País</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="62" t="str">
         <f>'Listado Objetos de Dominio'!B8</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de los paises del mundo </v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2808,11 +2800,11 @@
       <c r="T6" s="29"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2838,44 +2830,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61" t="s">
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61" t="s">
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="62"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -2888,12 +2880,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
+      <c r="K13" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -2908,88 +2900,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -2997,6 +2989,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3006,20 +3012,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3072,70 +3064,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="61" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="62" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que representa a cada uno de los departamentos que pertenecen a un pais</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3293,7 +3285,7 @@
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="80" t="str">
+      <c r="B7" s="54" t="str">
         <f>País!B2</f>
         <v>País</v>
       </c>
@@ -3338,11 +3330,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3356,20 +3348,20 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="85" t="str">
+      <c r="C11" s="57" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="48" t="str">
         <f>A7</f>
         <v>País</v>
@@ -3377,44 +3369,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61" t="s">
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61" t="s">
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="62"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="17" t="s">
         <v>28</v>
       </c>
@@ -3427,12 +3419,12 @@
       <c r="J15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
+      <c r="K15" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="17" t="s">
         <v>30</v>
       </c>
@@ -3447,88 +3439,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="43"/>
       <c r="H17" s="41"/>
       <c r="I17" s="42"/>
       <c r="J17" s="36"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="21"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="39"/>
       <c r="H18" s="37"/>
       <c r="I18" s="38"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
       <c r="O18" s="26"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="28"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="45"/>
       <c r="H19" s="46"/>
       <c r="I19" s="44"/>
       <c r="J19" s="45"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
       <c r="O19" s="29"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
@@ -3536,17 +3528,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -3561,6 +3542,17 @@
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3585,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -3613,70 +3605,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="61" t="str">
         <f>'Listado Objetos de Dominio'!A6</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="62" t="str">
         <f>'Listado Objetos de Dominio'!B6</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de las ciudades  que pertenecen a un departamento determinado </v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3831,7 +3823,7 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="58" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3866,7 +3858,7 @@
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="80" t="str">
+      <c r="B8" s="54" t="str">
         <f>+País!B2</f>
         <v>País</v>
       </c>
@@ -3913,7 +3905,7 @@
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="80" t="str">
+      <c r="B9" s="54" t="str">
         <f>+Departamento!B2</f>
         <v>Departamento</v>
       </c>
@@ -3958,11 +3950,11 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -3976,29 +3968,29 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="85" t="str">
+      <c r="C13" s="57" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="85" t="str">
+      <c r="B14" s="94"/>
+      <c r="C14" s="57" t="str">
         <f>A8</f>
         <v>País</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="85" t="str">
+      <c r="B15" s="95"/>
+      <c r="C15" s="57" t="str">
         <f>+A9</f>
         <v>Departamento</v>
       </c>
@@ -4010,51 +4002,51 @@
       <c r="B16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="95" t="str">
+      <c r="C16" s="59" t="str">
         <f>A7</f>
         <v>CodigoPostal</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61" t="s">
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61" t="s">
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="62"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="17" t="s">
         <v>28</v>
       </c>
@@ -4067,12 +4059,12 @@
       <c r="J19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
+      <c r="K19" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="17" t="s">
         <v>30</v>
       </c>
@@ -4087,88 +4079,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="20"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="24"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="43"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
       <c r="O21" s="21"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="39"/>
       <c r="H22" s="37"/>
       <c r="I22" s="38"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
       <c r="O22" s="26"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="28"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
       <c r="G23" s="45"/>
       <c r="H23" s="46"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
       <c r="O23" s="29"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
@@ -4176,12 +4168,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="K21:N21"/>
@@ -4189,18 +4187,12 @@
     <mergeCell ref="C18:F19"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:N18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -4256,70 +4248,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="61" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>TipoSede</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="62" t="str">
         <f>'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de domino que representa a cada uno de los tipos de sedes que son una sede, si son principales auxiliare… etc</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4471,11 +4463,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -4489,57 +4481,57 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="85" t="str">
+      <c r="C10" s="57" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61" t="s">
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61" t="s">
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="62"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -4552,12 +4544,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
+      <c r="K13" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -4572,88 +4564,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -4661,29 +4653,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{54925698-B435-4CEF-8023-7D14A6703108}"/>
@@ -4736,70 +4728,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="61" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>Sede</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="62" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que representa a cada una de las sedes a la que pertenece una institucion</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4955,11 +4947,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -4973,57 +4965,57 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="85" t="str">
+      <c r="C10" s="57" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61" t="s">
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61" t="s">
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="62"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -5036,12 +5028,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
+      <c r="K13" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -5056,88 +5048,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -5145,29 +5137,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{94CA0A7C-1906-4003-AE6F-B9785295D62E}"/>
@@ -5220,70 +5212,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="61" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Institucion</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="62" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion de las intituciones para las cuales se peuede gestionar la informacion de los computadores </v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -5441,7 +5433,7 @@
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="80" t="str">
+      <c r="B7" s="54" t="str">
         <f>+País!B2</f>
         <v>País</v>
       </c>
@@ -5488,7 +5480,7 @@
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="5">
         <v>1</v>
       </c>
@@ -5530,7 +5522,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="80"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -5552,7 +5544,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="80"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -5574,11 +5566,11 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -5592,28 +5584,28 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="85" t="str">
+      <c r="C14" s="57" t="str">
         <f>A6</f>
         <v>TipoDeIdentificación</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="85" t="str">
+      <c r="A15" s="88"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="57" t="str">
         <f>A7</f>
         <v>Numero</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="48">
         <f>+A10</f>
         <v>0</v>
@@ -5621,44 +5613,44 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61" t="s">
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61" t="s">
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="62"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="17" t="s">
         <v>28</v>
       </c>
@@ -5671,12 +5663,12 @@
       <c r="J19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
+      <c r="K19" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="17" t="s">
         <v>30</v>
       </c>
@@ -5691,88 +5683,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="20"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="24"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="43"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
       <c r="O21" s="21"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="39"/>
       <c r="H22" s="37"/>
       <c r="I22" s="38"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
       <c r="O22" s="26"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="28"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
       <c r="G23" s="45"/>
       <c r="H23" s="46"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
       <c r="O23" s="29"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
@@ -5780,23 +5772,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:P18"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="A1:P1"/>
@@ -5805,6 +5780,23 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D689B61D-A1E1-4CF1-802A-42925552DEBE}"/>
@@ -5827,11 +5819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B89BC-CEFB-4BD5-8A01-8985FA4EA88C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31553A4-246A-4520-898F-309D5889F13D}">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,83 +5837,83 @@
     <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="59.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="str">
-        <f>'Listado Objetos de Dominio'!A10</f>
-        <v>TipoInstitucion</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="B2" s="61" t="str">
+        <f>+'Listado Objetos de Dominio'!A11</f>
+        <v>Naturaleza</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
-        <f>'Listado Objetos de Dominio'!B10</f>
-        <v xml:space="preserve">Objeto de dominio que contiene representa cada uno de los tipos de instituciones que se tienen en un pais </v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="B3" s="62" t="str">
+        <f>+'Listado Objetos de Dominio'!B11</f>
+        <v>Objeto de dominio que representa  cada uno de los tipos de naturalezas tributarias que tiene cada institucion</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6022,7 +6014,7 @@
         <v>42</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="21"/>
@@ -6040,14 +6032,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="K6" s="11" t="s">
         <v>43</v>
       </c>
@@ -6064,7 +6058,7 @@
         <v>43</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="32"/>
       <c r="R6" s="21"/>
@@ -6073,11 +6067,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -6090,58 +6084,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="85" t="str">
+    <row r="10" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="57" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61" t="s">
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61" t="s">
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="62"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -6154,12 +6148,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
+      <c r="K13" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -6174,88 +6168,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -6263,43 +6257,43 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F5598C1E-A4F9-4E6C-AE34-8D6C68127C7A}"/>
-    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{351D3BAF-BF2B-40B8-8C47-6F8AA038E925}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{FA8DEBF3-3473-4419-A5D4-4D827B877F05}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{59E750FB-95F1-49DC-B971-122F6737404A}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{7D875679-F14C-417B-9FBB-C89A5B683465}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{9E695DBA-DD4C-4B4A-B8E2-78E802642D40}"/>
-    <hyperlink ref="A14:B14" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{9FBAE767-747D-4560-AAC7-3710CF9DD879}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{13AA64BD-200E-4A56-B599-57A81F758859}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{FB93FB9E-0B3B-446A-9C5E-47F7BFE0761F}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{579662AA-5B2E-495A-A07A-CF6650220185}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{FAE4E240-11F4-4E0E-ACFB-7B30C6422901}"/>
-    <hyperlink ref="C10" location="TipoInstitución!A6" display="TipoInstitución!A6" xr:uid="{BFEDF9A9-4BEC-4480-92DF-A4EB22B3BDE5}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E910AE9F-1606-43D3-94BF-5A9B9581EAE2}"/>
+    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{EEB9CCC5-04C5-4DB2-BB14-B1071A74DF30}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{BBBCC047-7523-420B-95FE-718ADEA13470}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{90C99117-51B1-4D20-A871-6AB103E6BDCF}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{16DA69D5-C28E-4D30-8D58-EE831040399C}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{7C0818FE-0F8D-4C4A-BADE-42A1E1080E59}"/>
+    <hyperlink ref="A14:B14" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{F6370D27-6966-44EC-B0C3-4D75FF4213FA}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{2CC57F17-FA78-4DC6-BA43-3648A14E95DD}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{656DB2DB-2E9E-425B-A416-2E5986998DE5}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{F6C501F2-FBA7-4C55-8776-F61192041F48}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{0B94DA54-E292-4E52-8500-2DB30A344A6D}"/>
+    <hyperlink ref="C10" location="Naturaleza!A6" display="Naturaleza!A6" xr:uid="{E2DC6613-995C-48BF-BC11-148B175DB943}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6307,9 +6301,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6457,19 +6454,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6493,9 +6486,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/HojaVidaComputo/Ubicación - Modelo de dominio enriquecido.xlsx
+++ b/HojaVidaComputo/Ubicación - Modelo de dominio enriquecido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/HojaVidaComputo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5693A3DB-600A-4D89-9138-23D8B4220805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D3BB2EF-F278-4325-88BC-9494EEE0A8AE}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5693A3DB-600A-4D89-9138-23D8B4220805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293984C1-D116-4582-AE1D-F3B6C84D12DB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="108">
   <si>
     <t>Nombre</t>
   </si>
@@ -369,6 +369,30 @@
   </si>
   <si>
     <t>No es posible tener mas de una ciudad con el mismo codigo postal</t>
+  </si>
+  <si>
+    <t>Crear País</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contiene la informacion de un país que se quiere crear </t>
+  </si>
+  <si>
+    <t>Pol-País-001</t>
+  </si>
+  <si>
+    <t>No debe existir otro pais con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Pol-País-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los datos del nuevo país deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>Se debe indicar que el país ya esta creado</t>
+  </si>
+  <si>
+    <t>Se debe cancelar la creacion</t>
   </si>
 </sst>
 </file>
@@ -486,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -738,13 +762,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -921,6 +1007,60 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -942,63 +1082,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1028,6 +1114,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1417,70 +1551,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos de Dominio'!A10</f>
         <v>TipoInstitucion</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos de Dominio'!B10</f>
         <v xml:space="preserve">Objeto de dominio que contiene representa cada uno de los tipos de instituciones que se tienen en un pais </v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1632,11 +1766,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1663,44 +1797,44 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67" t="s">
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="70"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -1713,12 +1847,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
+      <c r="K13" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -1733,88 +1867,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -1822,6 +1956,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="A1:P1"/>
@@ -1833,18 +1979,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F5598C1E-A4F9-4E6C-AE34-8D6C68127C7A}"/>
@@ -1897,70 +2031,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos de Dominio'!A12</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>+'Listado Objetos de Dominio'!B12</f>
         <v xml:space="preserve">Objeto de domino que representa cada uno de los tipos de identificacion tributaria de los negocios en un pais </v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2112,11 +2246,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2143,44 +2277,44 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67" t="s">
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="70"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -2193,12 +2327,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
+      <c r="K13" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -2213,88 +2347,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -2302,6 +2436,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="A1:P1"/>
@@ -2313,18 +2459,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{2C82CAE1-70DF-40A9-B1A2-1960AF16AFE9}"/>
@@ -2349,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -2555,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:P6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,76 +2710,78 @@
     <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos de Dominio'!A8</f>
         <v>País</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos de Dominio'!B8</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de los paises del mundo </v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2698,11 +2834,11 @@
       </c>
       <c r="Q4" s="35" t="str">
         <f>A14</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="33" t="str">
+        <v>Crear País</v>
+      </c>
+      <c r="R4" s="33">
         <f>A15</f>
-        <v>Reponsabilidad 2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="34" t="str">
         <f>A16</f>
@@ -2800,11 +2936,11 @@
       <c r="T6" s="29"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2830,44 +2966,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67" t="s">
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="70"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -2880,12 +3016,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
+      <c r="K13" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -2899,110 +3035,113 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="25"/>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="107"/>
+      <c r="C14" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="102" t="str">
+        <f>B6</f>
+        <v>Alfanumerico</v>
+      </c>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="105"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
       <c r="R17" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
+  <mergeCells count="25">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3012,6 +3151,22 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3019,8 +3174,6 @@
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A14:B14" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
     <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
@@ -3064,70 +3217,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que representa a cada uno de los departamentos que pertenecen a un pais</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3330,11 +3483,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3369,44 +3522,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67" t="s">
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67" t="s">
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67" t="s">
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="70"/>
+      <c r="R14" s="73"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="17" t="s">
         <v>28</v>
       </c>
@@ -3419,12 +3572,12 @@
       <c r="J15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
+      <c r="K15" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
       <c r="O15" s="17" t="s">
         <v>30</v>
       </c>
@@ -3439,88 +3592,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="43"/>
       <c r="H17" s="41"/>
       <c r="I17" s="42"/>
       <c r="J17" s="36"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="21"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="39"/>
       <c r="H18" s="37"/>
       <c r="I18" s="38"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="26"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="28"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="45"/>
       <c r="H19" s="46"/>
       <c r="I19" s="44"/>
       <c r="J19" s="45"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="29"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
@@ -3528,6 +3681,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -3542,17 +3706,6 @@
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3605,70 +3758,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos de Dominio'!A6</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos de Dominio'!B6</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de las ciudades  que pertenecen a un departamento determinado </v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3950,11 +4103,11 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -4009,44 +4162,44 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67" t="s">
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67" t="s">
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67" t="s">
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="70"/>
+      <c r="R18" s="73"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="17" t="s">
         <v>28</v>
       </c>
@@ -4059,12 +4212,12 @@
       <c r="J19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
+      <c r="K19" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
       <c r="O19" s="17" t="s">
         <v>30</v>
       </c>
@@ -4079,88 +4232,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="20"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="24"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="43"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
       <c r="O21" s="21"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="39"/>
       <c r="H22" s="37"/>
       <c r="I22" s="38"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
       <c r="O22" s="26"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="28"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="45"/>
       <c r="H23" s="46"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="29"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
@@ -4168,6 +4321,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -4175,24 +4346,6 @@
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -4248,70 +4401,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>TipoSede</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de domino que representa a cada uno de los tipos de sedes que son una sede, si son principales auxiliare… etc</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4463,11 +4616,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -4494,44 +4647,44 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67" t="s">
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="70"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -4544,12 +4697,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
+      <c r="K13" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -4564,88 +4717,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -4653,6 +4806,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="A1:P1"/>
@@ -4664,18 +4829,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{54925698-B435-4CEF-8023-7D14A6703108}"/>
@@ -4728,70 +4881,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>Sede</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que representa a cada una de las sedes a la que pertenece una institucion</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4947,11 +5100,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -4978,44 +5131,44 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67" t="s">
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="70"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -5028,12 +5181,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
+      <c r="K13" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -5048,88 +5201,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -5137,6 +5290,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="A1:P1"/>
@@ -5148,18 +5313,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{94CA0A7C-1906-4003-AE6F-B9785295D62E}"/>
@@ -5212,70 +5365,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Institucion</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion de las intituciones para las cuales se peuede gestionar la informacion de los computadores </v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -5566,11 +5719,11 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -5613,44 +5766,44 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67" t="s">
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67" t="s">
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67" t="s">
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="70"/>
+      <c r="R18" s="73"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="17" t="s">
         <v>28</v>
       </c>
@@ -5663,12 +5816,12 @@
       <c r="J19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
+      <c r="K19" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
       <c r="O19" s="17" t="s">
         <v>30</v>
       </c>
@@ -5683,88 +5836,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="20"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="24"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="43"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
       <c r="O21" s="21"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="39"/>
       <c r="H22" s="37"/>
       <c r="I22" s="38"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
       <c r="O22" s="26"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="28"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="45"/>
       <c r="H23" s="46"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="29"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
@@ -5772,6 +5925,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="A1:P1"/>
@@ -5785,18 +5950,6 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D689B61D-A1E1-4CF1-802A-42925552DEBE}"/>
@@ -5850,70 +6003,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="79" t="str">
         <f>+'Listado Objetos de Dominio'!A11</f>
         <v>Naturaleza</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="80" t="str">
         <f>+'Listado Objetos de Dominio'!B11</f>
         <v>Objeto de dominio que representa  cada uno de los tipos de naturalezas tributarias que tiene cada institucion</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6067,11 +6220,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -6098,44 +6251,44 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67" t="s">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67" t="s">
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="70"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -6148,12 +6301,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
+      <c r="K13" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -6168,88 +6321,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="43"/>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="44"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="29"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -6257,6 +6410,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="A1:P1"/>
@@ -6268,18 +6433,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E910AE9F-1606-43D3-94BF-5A9B9581EAE2}"/>
@@ -6310,6 +6463,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -6453,12 +6612,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
@@ -6468,6 +6621,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6485,15 +6647,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
